--- a/team_specific_matrix/Southeast Mo. St._A.xlsx
+++ b/team_specific_matrix/Southeast Mo. St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1822429906542056</v>
+        <v>0.1849056603773585</v>
       </c>
       <c r="C2">
-        <v>0.5841121495327103</v>
+        <v>0.5584905660377358</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03271028037383177</v>
+        <v>0.03018867924528302</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1214953271028037</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07943925233644859</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C3">
-        <v>0.008</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.736</v>
+        <v>0.7181208053691275</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.248</v>
+        <v>0.2483221476510067</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6551724137931034</v>
+        <v>0.65625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1087866108786611</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004184100418410041</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="E6">
-        <v>0.004184100418410041</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="F6">
-        <v>0.07531380753138076</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2552301255230126</v>
+        <v>0.2671232876712329</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02928870292887029</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1757322175732217</v>
+        <v>0.1678082191780822</v>
       </c>
       <c r="R6">
-        <v>0.04184100418410042</v>
+        <v>0.03767123287671233</v>
       </c>
       <c r="S6">
-        <v>0.3054393305439331</v>
+        <v>0.3150684931506849</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08762886597938144</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0154639175257732</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06701030927835051</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134020618556701</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03092783505154639</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907216494845361</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="R7">
-        <v>0.1030927835051546</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S7">
-        <v>0.3917525773195876</v>
+        <v>0.4322033898305085</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0831353919239905</v>
+        <v>0.07721280602636535</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01425178147268409</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0665083135391924</v>
+        <v>0.06591337099811675</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08788598574821853</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04275534441805225</v>
+        <v>0.04143126177024482</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.168646080760095</v>
+        <v>0.1713747645951036</v>
       </c>
       <c r="R8">
-        <v>0.08076009501187649</v>
+        <v>0.08097928436911488</v>
       </c>
       <c r="S8">
-        <v>0.4560570071258908</v>
+        <v>0.4670433145009416</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07766990291262135</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02912621359223301</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07766990291262135</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.116504854368932</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04854368932038835</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1844660194174757</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.1067961165048544</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="S9">
-        <v>0.3592233009708738</v>
+        <v>0.3676470588235294</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08704453441295547</v>
+        <v>0.09416666666666666</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01821862348178137</v>
+        <v>0.01583333333333333</v>
       </c>
       <c r="E10">
-        <v>0.002024291497975709</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="F10">
-        <v>0.0840080971659919</v>
+        <v>0.08166666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1012145748987854</v>
+        <v>0.1033333333333333</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01417004048582996</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2327935222672065</v>
+        <v>0.2283333333333333</v>
       </c>
       <c r="R10">
-        <v>0.06275303643724696</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S10">
-        <v>0.3977732793522267</v>
+        <v>0.3941666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1587301587301587</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1174603174603175</v>
+        <v>0.1078947368421053</v>
       </c>
       <c r="K11">
-        <v>0.2253968253968254</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="L11">
-        <v>0.4825396825396825</v>
+        <v>0.4973684210526316</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01587301587301587</v>
+        <v>0.01842105263157895</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7290322580645161</v>
+        <v>0.7512953367875648</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1870967741935484</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="K12">
-        <v>0.02580645161290323</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="L12">
-        <v>0.02580645161290323</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03225806451612903</v>
+        <v>0.04145077720207254</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.660377358490566</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3018867924528302</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03773584905660377</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01932367149758454</v>
+        <v>0.024</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2173913043478261</v>
+        <v>0.216</v>
       </c>
       <c r="I15">
-        <v>0.02415458937198068</v>
+        <v>0.024</v>
       </c>
       <c r="J15">
-        <v>0.3091787439613526</v>
+        <v>0.316</v>
       </c>
       <c r="K15">
-        <v>0.0821256038647343</v>
+        <v>0.08</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02898550724637681</v>
+        <v>0.024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1014492753623188</v>
+        <v>0.104</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2173913043478261</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.237037037037037</v>
+        <v>0.2371794871794872</v>
       </c>
       <c r="I16">
-        <v>0.08888888888888889</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3407407407407407</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K16">
-        <v>0.1185185185185185</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05185185185185185</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1185185185185185</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02798982188295165</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2010178117048346</v>
+        <v>0.200845665961945</v>
       </c>
       <c r="I17">
-        <v>0.06106870229007633</v>
+        <v>0.06342494714587738</v>
       </c>
       <c r="J17">
-        <v>0.3994910941475827</v>
+        <v>0.3974630021141649</v>
       </c>
       <c r="K17">
-        <v>0.1145038167938931</v>
+        <v>0.1141649048625793</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03053435114503817</v>
+        <v>0.02959830866807611</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07633587786259542</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08905852417302799</v>
+        <v>0.09513742071881606</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05882352941176471</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1691176470588235</v>
+        <v>0.2035928143712575</v>
       </c>
       <c r="I18">
-        <v>0.05147058823529412</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="J18">
-        <v>0.3676470588235294</v>
+        <v>0.3832335329341318</v>
       </c>
       <c r="K18">
-        <v>0.1544117647058824</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03676470588235294</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07352941176470588</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08823529411764706</v>
+        <v>0.08383233532934131</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03969754253308128</v>
+        <v>0.0400604686318972</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2315689981096408</v>
+        <v>0.236583522297808</v>
       </c>
       <c r="I19">
-        <v>0.05198487712665406</v>
+        <v>0.05895691609977324</v>
       </c>
       <c r="J19">
-        <v>0.3449905482041588</v>
+        <v>0.3371126228269085</v>
       </c>
       <c r="K19">
-        <v>0.1304347826086956</v>
+        <v>0.1307634164777022</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02551984877126654</v>
+        <v>0.02343159486016629</v>
       </c>
       <c r="N19">
-        <v>0.000945179584120983</v>
+        <v>0.0007558578987150416</v>
       </c>
       <c r="O19">
-        <v>0.06427221172022685</v>
+        <v>0.06500377928949358</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.110586011342155</v>
+        <v>0.1073318216175359</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southeast Mo. St._A.xlsx
+++ b/team_specific_matrix/Southeast Mo. St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1849056603773585</v>
+        <v>0.1866197183098592</v>
       </c>
       <c r="C2">
-        <v>0.5584905660377358</v>
+        <v>0.5598591549295775</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03018867924528302</v>
+        <v>0.03169014084507042</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1132075471698113</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1132075471698113</v>
+        <v>0.1091549295774648</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006711409395973154</v>
+        <v>0.00625</v>
       </c>
       <c r="C3">
-        <v>0.01342281879194631</v>
+        <v>0.0125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01342281879194631</v>
+        <v>0.0125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7181208053691275</v>
+        <v>0.725</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2483221476510067</v>
+        <v>0.24375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09246575342465753</v>
+        <v>0.09061488673139159</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003424657534246575</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="E6">
-        <v>0.003424657534246575</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="F6">
-        <v>0.08561643835616438</v>
+        <v>0.08414239482200647</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2671232876712329</v>
+        <v>0.2621359223300971</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273972602739726</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1678082191780822</v>
+        <v>0.1715210355987055</v>
       </c>
       <c r="R6">
-        <v>0.03767123287671233</v>
+        <v>0.03559870550161812</v>
       </c>
       <c r="S6">
-        <v>0.3150684931506849</v>
+        <v>0.3203883495145631</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09322033898305085</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01694915254237288</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0635593220338983</v>
+        <v>0.0648854961832061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1016949152542373</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02966101694915254</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1779661016949153</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="R7">
-        <v>0.0847457627118644</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="S7">
-        <v>0.4322033898305085</v>
+        <v>0.4389312977099237</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07721280602636535</v>
+        <v>0.07747747747747748</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01129943502824859</v>
+        <v>0.01261261261261261</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06591337099811675</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0847457627118644</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04143126177024482</v>
+        <v>0.03963963963963964</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1713747645951036</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="R8">
-        <v>0.08097928436911488</v>
+        <v>0.07747747747747748</v>
       </c>
       <c r="S8">
-        <v>0.4670433145009416</v>
+        <v>0.4738738738738739</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07352941176470588</v>
+        <v>0.07947019867549669</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07352941176470588</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.119205298013245</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04411764705882353</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1764705882352941</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="R9">
-        <v>0.1102941176470588</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="S9">
-        <v>0.3676470588235294</v>
+        <v>0.3774834437086093</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09416666666666666</v>
+        <v>0.09557109557109557</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01583333333333333</v>
+        <v>0.01476301476301476</v>
       </c>
       <c r="E10">
-        <v>0.001666666666666667</v>
+        <v>0.001554001554001554</v>
       </c>
       <c r="F10">
-        <v>0.08166666666666667</v>
+        <v>0.08003108003108003</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1033333333333333</v>
+        <v>0.1041181041181041</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01416666666666667</v>
+        <v>0.01320901320901321</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2283333333333333</v>
+        <v>0.2253302253302253</v>
       </c>
       <c r="R10">
-        <v>0.06666666666666667</v>
+        <v>0.06682206682206682</v>
       </c>
       <c r="S10">
-        <v>0.3941666666666667</v>
+        <v>0.3986013986013986</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.15</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1078947368421053</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="K11">
-        <v>0.2263157894736842</v>
+        <v>0.2219512195121951</v>
       </c>
       <c r="L11">
-        <v>0.4973684210526316</v>
+        <v>0.5048780487804878</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01842105263157895</v>
+        <v>0.01951219512195122</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7512953367875648</v>
+        <v>0.7616822429906542</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658031088082902</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="K12">
-        <v>0.02072538860103627</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="L12">
-        <v>0.02072538860103627</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04145077720207254</v>
+        <v>0.04205607476635514</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6779661016949152</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.288135593220339</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03389830508474576</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.024</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.216</v>
+        <v>0.2113207547169811</v>
       </c>
       <c r="I15">
-        <v>0.024</v>
+        <v>0.03018867924528302</v>
       </c>
       <c r="J15">
-        <v>0.316</v>
+        <v>0.3245283018867924</v>
       </c>
       <c r="K15">
-        <v>0.08</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.024</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.104</v>
+        <v>0.1018867924528302</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.212</v>
+        <v>0.2037735849056604</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2371794871794872</v>
+        <v>0.2275449101796407</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="J16">
-        <v>0.3461538461538461</v>
+        <v>0.3473053892215569</v>
       </c>
       <c r="K16">
-        <v>0.1153846153846154</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04487179487179487</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1282051282051282</v>
+        <v>0.1317365269461078</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02536997885835095</v>
+        <v>0.02761341222879684</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.200845665961945</v>
+        <v>0.1932938856015779</v>
       </c>
       <c r="I17">
-        <v>0.06342494714587738</v>
+        <v>0.0670611439842209</v>
       </c>
       <c r="J17">
-        <v>0.3974630021141649</v>
+        <v>0.3964497041420119</v>
       </c>
       <c r="K17">
-        <v>0.1141649048625793</v>
+        <v>0.1143984220907298</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02959830866807611</v>
+        <v>0.03155818540433925</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07399577167019028</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09513742071881606</v>
+        <v>0.09270216962524655</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05389221556886228</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2035928143712575</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="I18">
-        <v>0.05988023952095808</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.3832335329341318</v>
+        <v>0.3828571428571428</v>
       </c>
       <c r="K18">
-        <v>0.125748502994012</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02994011976047904</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05988023952095808</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08383233532934131</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0400604686318972</v>
+        <v>0.03952011291460833</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.236583522297808</v>
+        <v>0.2342978122794637</v>
       </c>
       <c r="I19">
-        <v>0.05895691609977324</v>
+        <v>0.05998588567395907</v>
       </c>
       <c r="J19">
-        <v>0.3371126228269085</v>
+        <v>0.3429781227946366</v>
       </c>
       <c r="K19">
-        <v>0.1307634164777022</v>
+        <v>0.13196894848271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02343159486016629</v>
+        <v>0.02399435426958363</v>
       </c>
       <c r="N19">
-        <v>0.0007558578987150416</v>
+        <v>0.0007057163020465773</v>
       </c>
       <c r="O19">
-        <v>0.06500377928949358</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1073318216175359</v>
+        <v>0.1023288637967537</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southeast Mo. St._A.xlsx
+++ b/team_specific_matrix/Southeast Mo. St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1866197183098592</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5598591549295775</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03169014084507042</v>
+        <v>0.03</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1126760563380282</v>
+        <v>0.11</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1091549295774648</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C3">
-        <v>0.0125</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0125</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.725</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.24375</v>
+        <v>0.2383720930232558</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09061488673139159</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003236245954692557</v>
+        <v>0.003164556962025316</v>
       </c>
       <c r="E6">
-        <v>0.003236245954692557</v>
+        <v>0.003164556962025316</v>
       </c>
       <c r="F6">
-        <v>0.08414239482200647</v>
+        <v>0.08544303797468354</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2621359223300971</v>
+        <v>0.2626582278481013</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02912621359223301</v>
+        <v>0.02848101265822785</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1715210355987055</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="R6">
-        <v>0.03559870550161812</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="S6">
-        <v>0.3203883495145631</v>
+        <v>0.3227848101265823</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08396946564885496</v>
+        <v>0.09025270758122744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01526717557251908</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0648854961832061</v>
+        <v>0.06137184115523465</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0916030534351145</v>
+        <v>0.09747292418772563</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03435114503816794</v>
+        <v>0.03249097472924187</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1908396946564886</v>
+        <v>0.1877256317689531</v>
       </c>
       <c r="R7">
-        <v>0.08015267175572519</v>
+        <v>0.08303249097472924</v>
       </c>
       <c r="S7">
-        <v>0.4389312977099237</v>
+        <v>0.4332129963898917</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07747747747747748</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01261261261261261</v>
+        <v>0.01238938053097345</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06486486486486487</v>
+        <v>0.06548672566371681</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08648648648648649</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03963963963963964</v>
+        <v>0.03893805309734513</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1675675675675676</v>
+        <v>0.1646017699115044</v>
       </c>
       <c r="R8">
-        <v>0.07747747747747748</v>
+        <v>0.07610619469026549</v>
       </c>
       <c r="S8">
-        <v>0.4738738738738739</v>
+        <v>0.4743362831858407</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07947019867549669</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02649006622516556</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0728476821192053</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.119205298013245</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03973509933774835</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1788079470198675</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.1059602649006623</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="S9">
-        <v>0.3774834437086093</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09557109557109557</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01476301476301476</v>
+        <v>0.01416853094705444</v>
       </c>
       <c r="E10">
-        <v>0.001554001554001554</v>
+        <v>0.001491424310216256</v>
       </c>
       <c r="F10">
-        <v>0.08003108003108003</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1041181041181041</v>
+        <v>0.1036539895600298</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01320901320901321</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2253302253302253</v>
+        <v>0.2244593586875466</v>
       </c>
       <c r="R10">
-        <v>0.06682206682206682</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="S10">
-        <v>0.3986013986013986</v>
+        <v>0.3967188665175242</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1512195121951219</v>
+        <v>0.1531322505800464</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1024390243902439</v>
+        <v>0.1020881670533643</v>
       </c>
       <c r="K11">
-        <v>0.2219512195121951</v>
+        <v>0.2204176334106729</v>
       </c>
       <c r="L11">
-        <v>0.5048780487804878</v>
+        <v>0.505800464037123</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01951219512195122</v>
+        <v>0.0185614849187935</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7616822429906542</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1542056074766355</v>
+        <v>0.1644444444444444</v>
       </c>
       <c r="K12">
-        <v>0.01869158878504673</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="L12">
-        <v>0.02336448598130841</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04205607476635514</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6615384615384615</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02264150943396226</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2113207547169811</v>
+        <v>0.2153284671532847</v>
       </c>
       <c r="I15">
-        <v>0.03018867924528302</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="J15">
-        <v>0.3245283018867924</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="K15">
-        <v>0.0830188679245283</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02264150943396226</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1018867924528302</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2037735849056604</v>
+        <v>0.208029197080292</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02395209580838323</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2275449101796407</v>
+        <v>0.231638418079096</v>
       </c>
       <c r="I16">
-        <v>0.08982035928143713</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J16">
-        <v>0.3473053892215569</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1197604790419162</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01796407185628742</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O16">
-        <v>0.04191616766467066</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1317365269461078</v>
+        <v>0.1412429378531073</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02761341222879684</v>
+        <v>0.02697495183044316</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1932938856015779</v>
+        <v>0.1888246628131021</v>
       </c>
       <c r="I17">
-        <v>0.0670611439842209</v>
+        <v>0.06551059730250482</v>
       </c>
       <c r="J17">
-        <v>0.3964497041420119</v>
+        <v>0.4007707129094412</v>
       </c>
       <c r="K17">
-        <v>0.1143984220907298</v>
+        <v>0.1175337186897881</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03155818540433925</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07692307692307693</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09270216962524655</v>
+        <v>0.0905587668593449</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05142857142857143</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1942857142857143</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I18">
-        <v>0.05714285714285714</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="J18">
-        <v>0.3828571428571428</v>
+        <v>0.3791208791208791</v>
       </c>
       <c r="K18">
-        <v>0.1371428571428571</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03428571428571429</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="O18">
-        <v>0.05714285714285714</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08571428571428572</v>
+        <v>0.08241758241758242</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03952011291460833</v>
+        <v>0.038173142467621</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2342978122794637</v>
+        <v>0.2283571915473756</v>
       </c>
       <c r="I19">
-        <v>0.05998588567395907</v>
+        <v>0.05862304021813224</v>
       </c>
       <c r="J19">
-        <v>0.3429781227946366</v>
+        <v>0.3469665985003408</v>
       </c>
       <c r="K19">
-        <v>0.13196894848271</v>
+        <v>0.1356509884117246</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02399435426958363</v>
+        <v>0.02385821404226312</v>
       </c>
       <c r="N19">
-        <v>0.0007057163020465773</v>
+        <v>0.0006816632583503749</v>
       </c>
       <c r="O19">
-        <v>0.06422018348623854</v>
+        <v>0.06339468302658487</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1023288637967537</v>
+        <v>0.1042944785276074</v>
       </c>
     </row>
   </sheetData>
